--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2730.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2730.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16203882314656</v>
+        <v>0.7173645496368408</v>
       </c>
       <c r="B1">
-        <v>2.401217467772719</v>
+        <v>1.028411746025085</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.959414482116699</v>
       </c>
       <c r="D1">
-        <v>2.366219714227662</v>
+        <v>3.384492874145508</v>
       </c>
       <c r="E1">
-        <v>1.217854199816577</v>
+        <v>3.6192946434021</v>
       </c>
     </row>
   </sheetData>
